--- a/Output/June/productivity_agent_valid/productivity_agent_2022-06-01_valid.xlsx
+++ b/Output/June/productivity_agent_valid/productivity_agent_2022-06-01_valid.xlsx
@@ -26005,7 +26005,7 @@
         <v>0.7529182879377432</v>
       </c>
       <c r="J79">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -26119,7 +26119,7 @@
         <v>0</v>
       </c>
       <c r="AV79">
-        <v>83.17596566523606</v>
+        <v>81.63090128755366</v>
       </c>
       <c r="AW79">
         <v>0</v>
@@ -26233,7 +26233,7 @@
         <v>0</v>
       </c>
       <c r="CH79">
-        <v>1.109012875536481</v>
+        <v>1.088412017167382</v>
       </c>
       <c r="CI79">
         <v>0</v>
@@ -26290,7 +26290,7 @@
         <v>0</v>
       </c>
       <c r="DA79">
-        <v>0.8012458295756392</v>
+        <v>0.7888427288004455</v>
       </c>
     </row>
     <row r="80" spans="1:105">

--- a/Output/June/productivity_agent_valid/productivity_agent_2022-06-01_valid.xlsx
+++ b/Output/June/productivity_agent_valid/productivity_agent_2022-06-01_valid.xlsx
@@ -16190,7 +16190,7 @@
         <v>1050</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1832</v>
       </c>
       <c r="O48">
         <v>3608</v>
@@ -16304,7 +16304,7 @@
         <v>1431.818181818182</v>
       </c>
       <c r="AZ48">
-        <v>0</v>
+        <v>695.6962025316456</v>
       </c>
       <c r="BA48">
         <v>813.8345864661653</v>
@@ -16418,7 +16418,7 @@
         <v>0.3087145713277667</v>
       </c>
       <c r="CL48">
-        <v>0</v>
+        <v>0.8184661206254653</v>
       </c>
       <c r="CM48">
         <v>1.017293233082707</v>
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="DA48">
-        <v>0.5427011367702513</v>
+        <v>0.7719877450305768</v>
       </c>
     </row>
     <row r="49" spans="1:105">
@@ -16507,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2607</v>
       </c>
       <c r="O49">
         <v>571</v>
@@ -16621,7 +16621,7 @@
         <v>0</v>
       </c>
       <c r="AZ49">
-        <v>0</v>
+        <v>496.5714285714286</v>
       </c>
       <c r="BA49">
         <v>475.8333333333334</v>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="CL49">
-        <v>0</v>
+        <v>0.5842016806722689</v>
       </c>
       <c r="CM49">
         <v>0.5947916666666667</v>
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.1947005988023952</v>
+        <v>0.5620130327580134</v>
       </c>
     </row>
     <row r="50" spans="1:105">
@@ -16824,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="O50">
         <v>1606</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AZ50">
-        <v>0</v>
+        <v>853.4042553191489</v>
       </c>
       <c r="BA50">
         <v>1204.5</v>
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="CL50">
-        <v>0</v>
+        <v>1.004005006257822</v>
       </c>
       <c r="CM50">
         <v>1.505625</v>
@@ -17097,7 +17097,7 @@
         <v>0.3761194029850746</v>
       </c>
       <c r="DA50">
-        <v>0.4716145833333334</v>
+        <v>0.6354626225490196</v>
       </c>
     </row>
     <row r="51" spans="1:105">
@@ -17141,7 +17141,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="AZ51">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="BA51">
         <v>0</v>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="CL51">
-        <v>0</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="CM51">
         <v>0</v>
@@ -17414,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="DA51">
-        <v>0.4626970954356846</v>
+        <v>0.4859824261654869</v>
       </c>
     </row>
     <row r="52" spans="1:105">
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="O55">
         <v>1953</v>
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="AZ55">
-        <v>0</v>
+        <v>406.6666666666667</v>
       </c>
       <c r="BA55">
         <v>760.909090909091</v>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="CL55">
-        <v>0</v>
+        <v>0.4784313725490196</v>
       </c>
       <c r="CM55">
         <v>0.9511363636363638</v>
@@ -18682,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="DA55">
-        <v>0.3879752851711026</v>
+        <v>0.4207196376649519</v>
       </c>
     </row>
     <row r="56" spans="1:105">
@@ -18726,7 +18726,7 @@
         <v>749</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="O56">
         <v>986</v>
@@ -18840,7 +18840,7 @@
         <v>186.4730290456432</v>
       </c>
       <c r="AZ56">
-        <v>0</v>
+        <v>462.4390243902439</v>
       </c>
       <c r="BA56">
         <v>552.8971962616822</v>
@@ -18954,7 +18954,7 @@
         <v>0.04020548276102699</v>
       </c>
       <c r="CL56">
-        <v>0</v>
+        <v>0.5440459110473458</v>
       </c>
       <c r="CM56">
         <v>0.6911214953271028</v>
@@ -18999,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.3382768389198726</v>
+        <v>0.4166806433238837</v>
       </c>
     </row>
     <row r="57" spans="1:105">
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="O60">
         <v>666</v>
@@ -20108,7 +20108,7 @@
         <v>0</v>
       </c>
       <c r="AZ60">
-        <v>0</v>
+        <v>605.1428571428572</v>
       </c>
       <c r="BA60">
         <v>335.7983193277311</v>
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="CL60">
-        <v>0</v>
+        <v>0.7119327731092437</v>
       </c>
       <c r="CM60">
         <v>0.4197478991596638</v>
@@ -20267,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="DA60">
-        <v>0.2554945054945055</v>
+        <v>0.3650226244343892</v>
       </c>
     </row>
     <row r="61" spans="1:105">
@@ -20311,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>5029</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="AZ61">
-        <v>0</v>
+        <v>601.0756972111553</v>
       </c>
       <c r="BA61">
         <v>0</v>
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="CL61">
-        <v>0</v>
+        <v>0.7071478790719474</v>
       </c>
       <c r="CM61">
         <v>0</v>
@@ -20584,7 +20584,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.003977272727272727</v>
+        <v>0.6763034759358288</v>
       </c>
     </row>
     <row r="62" spans="1:105">
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="AZ71">
-        <v>0</v>
+        <v>478.2857142857143</v>
       </c>
       <c r="BA71">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="CL71">
-        <v>0</v>
+        <v>0.5626890756302521</v>
       </c>
       <c r="CM71">
         <v>0</v>
@@ -23754,7 +23754,7 @@
         <v>0</v>
       </c>
       <c r="DA71">
-        <v>0.6149736379613355</v>
+        <v>0.6495854440194354</v>
       </c>
     </row>
     <row r="72" spans="1:105">
@@ -24115,7 +24115,7 @@
         <v>48</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="O73">
         <v>1283</v>
@@ -24229,7 +24229,7 @@
         <v>261.8181818181818</v>
       </c>
       <c r="AZ73">
-        <v>0</v>
+        <v>662.6315789473684</v>
       </c>
       <c r="BA73">
         <v>874.7727272727274</v>
@@ -24343,7 +24343,7 @@
         <v>0.05645066447136305</v>
       </c>
       <c r="CL73">
-        <v>0</v>
+        <v>0.7795665634674923</v>
       </c>
       <c r="CM73">
         <v>1.093465909090909</v>
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="DA73">
-        <v>0.4536506568183548</v>
+        <v>0.617015708721469</v>
       </c>
     </row>
     <row r="74" spans="1:105">
